--- a/Data/variants_chaperones/histone_variants.xlsx
+++ b/Data/variants_chaperones/histone_variants.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="381">
   <si>
     <t xml:space="preserve">GeneName</t>
   </si>
@@ -351,6 +351,9 @@
   </si>
   <si>
     <t xml:space="preserve">H2AC19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSG00000272196</t>
   </si>
   <si>
     <t xml:space="preserve">Hist2h2ab</t>
@@ -1396,8 +1399,8 @@
   </sheetPr>
   <dimension ref="A1:E95"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1817,7 +1820,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>97</v>
       </c>
@@ -1831,1197 +1834,1197 @@
         <v>723790</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D26" s="1" t="n">
         <v>317772</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D27" s="1" t="n">
         <v>8338</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D28" s="1" t="n">
         <v>8333</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D29" s="1" t="n">
         <v>92815</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D30" s="1" t="n">
         <v>55766</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D31" s="1" t="n">
         <v>3014</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D32" s="1" t="n">
         <v>3015</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D33" s="1" t="n">
         <v>94239</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D34" s="1" t="n">
         <v>9555</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D35" s="1" t="n">
         <v>55506</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D36" s="1" t="n">
         <v>221613</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D37" s="1" t="n">
         <v>474382</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D38" s="1" t="n">
         <v>474381</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D39" s="1" t="n">
         <v>83740</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D40" s="1" t="n">
         <v>3018</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D41" s="1" t="n">
         <v>8347</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D42" s="1" t="n">
         <v>8344</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D43" s="1" t="n">
         <v>8343</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D44" s="1" t="n">
         <v>8346</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D45" s="1" t="n">
         <v>8339</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D46" s="1" t="n">
         <v>3017</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D47" s="1" t="n">
         <v>8345</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D48" s="1" t="n">
         <v>8970</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D49" s="1" t="n">
         <v>85236</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D50" s="1" t="n">
         <v>8340</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D51" s="1" t="n">
         <v>8342</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D52" s="1" t="n">
         <v>8341</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D53" s="1" t="n">
         <v>8348</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D54" s="1" t="n">
         <v>8349</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D55" s="1" t="n">
         <v>440689</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D56" s="1" t="n">
         <v>128312</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D57" s="1" t="n">
         <v>54145</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D58" s="1" t="n">
         <v>286436</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D59" s="1" t="n">
         <v>158983</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D60" s="1" t="n">
         <v>255626</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D61" s="1" t="n">
         <v>8350</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D62" s="1" t="n">
         <v>8358</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D63" s="1" t="n">
         <v>8352</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D64" s="1" t="n">
         <v>8351</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D65" s="1" t="n">
         <v>8353</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D66" s="1" t="n">
         <v>8968</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D67" s="1" t="n">
         <v>8355</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D68" s="1" t="n">
         <v>8357</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D69" s="1" t="n">
         <v>8354</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D70" s="1" t="n">
         <v>333932</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="120" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D71" s="1" t="n">
         <v>126961</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D72" s="1" t="n">
         <v>653604</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D73" s="1" t="n">
         <v>440686</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D74" s="1" t="n">
         <v>8290</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D75" s="1" t="n">
         <v>3020</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D76" s="1" t="n">
         <v>3021</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D77" s="1" t="n">
         <v>391769</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D78" s="1" t="n">
         <v>340096</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D79" s="1" t="n">
         <v>440093</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D80" s="1" t="n">
         <v>1058</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D81" s="1" t="n">
         <v>8359</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D82" s="1" t="n">
         <v>8366</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D83" s="1" t="n">
         <v>8364</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D84" s="1" t="n">
         <v>8360</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D85" s="1" t="n">
         <v>8367</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D86" s="1" t="n">
         <v>8361</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D87" s="1" t="n">
         <v>8365</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D88" s="1" t="n">
         <v>8294</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D89" s="1" t="n">
         <v>8363</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="105" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D90" s="1" t="n">
         <v>8362</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D91" s="1" t="n">
         <v>8368</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D92" s="1" t="n">
         <v>8370</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D93" s="1" t="n">
         <v>554313</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D94" s="1" t="n">
         <v>121504</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D95" s="1" t="n">
         <v>8369</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
